--- a/Sensitivity beef imports.xlsx
+++ b/Sensitivity beef imports.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Moberg et al. (2019) Determining the climate impact of food for use in a climate tax – design of a consistent and transparent model</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Clune et al. (2017) used in SAFAD</t>
+  </si>
+  <si>
+    <t>LUC</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
   <dimension ref="B2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,12 +674,12 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>4.9791815905812937</v>
+      <c r="C7">
+        <v>4.8996680533996839</v>
       </c>
       <c r="D7">
-        <f>C7/$B$26</f>
-        <v>7.1642900583903515</v>
+        <f>C7/$B$27</f>
+        <v>7.0498820912225675</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>22</v>
@@ -697,11 +700,11 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>0.48602403018937046</v>
       </c>
       <c r="D8">
-        <f>C8/$B$26</f>
+        <f>C8/$B$27</f>
         <v>0.69931515135161226</v>
       </c>
       <c r="R8" t="s">
@@ -723,11 +726,11 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>2.2752479465812575E-2</v>
       </c>
       <c r="D9">
-        <f>C9/$B$26</f>
+        <f>C9/$B$27</f>
         <v>3.273738052634903E-2</v>
       </c>
       <c r="R9" s="7" t="s">
@@ -746,6 +749,16 @@
       <c r="V9" s="9"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>7.9513537181609403E-2</v>
+      </c>
+      <c r="D10">
+        <f>C10/$B$27</f>
+        <v>0.11440796716778333</v>
+      </c>
       <c r="R10" t="s">
         <v>28</v>
       </c>
@@ -762,9 +775,6 @@
       <c r="V10" s="9"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="R11" t="s">
         <v>30</v>
       </c>
@@ -781,7 +791,9 @@
       <c r="V11" s="9"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="R12" s="7" t="s">
         <v>32</v>
       </c>
@@ -798,9 +810,7 @@
       <c r="V12" s="9"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="R13" s="7" t="s">
         <v>34</v>
       </c>
@@ -817,14 +827,8 @@
       <c r="V13" s="9"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>36</v>
@@ -842,19 +846,14 @@
       <c r="V14" s="9"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15</f>
-        <v>0.3</v>
-      </c>
-      <c r="E15">
-        <f>D15/$B$26</f>
-        <v>0.43165467625899284</v>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -873,18 +872,18 @@
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="D16">
-        <f>C16/25</f>
-        <v>0.8640000000000001</v>
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16</f>
+        <v>0.3</v>
       </c>
       <c r="E16">
-        <f>D16/$B$26</f>
-        <v>1.2431654676258994</v>
+        <f>D16/$B$27</f>
+        <v>0.43165467625899284</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>40</v>
@@ -903,18 +902,18 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="D17" s="3">
-        <f>C17/298</f>
-        <v>2.1140939597315434E-2</v>
+        <v>21.6</v>
+      </c>
+      <c r="D17">
+        <f>C17/25</f>
+        <v>0.8640000000000001</v>
       </c>
       <c r="E17">
-        <f>D17/$B$26</f>
-        <v>3.041861812563372E-2</v>
+        <f>D17/$B$27</f>
+        <v>1.2431654676258994</v>
       </c>
       <c r="R17" t="s">
         <v>42</v>
@@ -932,6 +931,20 @@
       <c r="V17" s="9"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18/298</f>
+        <v>2.1140939597315434E-2</v>
+      </c>
+      <c r="E18">
+        <f>D18/$B$27</f>
+        <v>3.041861812563372E-2</v>
+      </c>
       <c r="R18" t="s">
         <v>44</v>
       </c>
@@ -948,9 +961,6 @@
       <c r="V18" s="9"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="R19" s="7" t="s">
         <v>46</v>
       </c>
@@ -967,12 +977,8 @@
       <c r="V19" s="9"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>48</v>
@@ -990,15 +996,12 @@
       <c r="V20" s="9"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21">
-        <v>43</v>
-      </c>
-      <c r="G21">
-        <f>F21/B26</f>
-        <v>61.870503597122308</v>
+      <c r="B21" s="1"/>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>50</v>
@@ -1016,6 +1019,16 @@
       <c r="V21" s="9"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>43</v>
+      </c>
+      <c r="G22">
+        <f>F22/B27</f>
+        <v>61.870503597122308</v>
+      </c>
       <c r="R22" s="5" t="s">
         <v>52</v>
       </c>
@@ -1032,9 +1045,6 @@
       <c r="V22" s="9"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
       <c r="R23" s="6" t="s">
         <v>54</v>
       </c>
@@ -1051,6 +1061,9 @@
       <c r="V23" s="9"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
       <c r="R24" s="5" t="s">
         <v>56</v>
       </c>
@@ -1064,9 +1077,6 @@
       <c r="V24" s="9"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
       <c r="R25" s="5" t="s">
         <v>58</v>
       </c>
@@ -1083,11 +1093,8 @@
       <c r="V25" s="9"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
+      <c r="B26" t="s">
+        <v>9</v>
       </c>
       <c r="R26" s="6" t="s">
         <v>60</v>
@@ -1105,6 +1112,12 @@
       <c r="V26" s="9"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
       <c r="R27" s="5" t="s">
         <v>62</v>
       </c>
